--- a/biology/Botanique/Moulin_du_Neckersgat/Moulin_du_Neckersgat.xlsx
+++ b/biology/Botanique/Moulin_du_Neckersgat/Moulin_du_Neckersgat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Moulin du Nekkersgat ou Moulin du Neckersgat[1],[2] est un moulin à eau dont l'origine remonte au XIIe siècle, situé rue Keyenbempt, n° 66 à Uccle. Entraîné par le Geleytsbeek, il servit initialement à la moulure du grain, et devint un moulin à papier au XVIIe siècle. Après une lourde campagne de restauration (2008-2013), les bâtiments servent désormais de lieu d'exposition et d'événement. Des activités artistiques, artisanales, culturelles et sociales y sont organisées par l'ASBL Le Moulin du Nekkersgat.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Moulin du Nekkersgat ou Moulin du Neckersgat, est un moulin à eau dont l'origine remonte au XIIe siècle, situé rue Keyenbempt, n° 66 à Uccle. Entraîné par le Geleytsbeek, il servit initialement à la moulure du grain, et devint un moulin à papier au XVIIe siècle. Après une lourde campagne de restauration (2008-2013), les bâtiments servent désormais de lieu d'exposition et d'événement. Des activités artistiques, artisanales, culturelles et sociales y sont organisées par l'ASBL Le Moulin du Nekkersgat.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Le moulin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison du meunier, la salle des machines et les dépendances, de style brabançon, forment une cour centrale.
-Les plus anciennes fondations remonteraient au XIIe siècle. La présence d'un moulin en ce lieu est attestée depuis 1362 [3] . Un acte officiel daté du 29 juillet 1636 mentionne le nom du moulin pour la première fois ; il servait alors de moulin à grain à l'abbaye d'Affligem.
+Les plus anciennes fondations remonteraient au XIIe siècle. La présence d'un moulin en ce lieu est attestée depuis 1362  . Un acte officiel daté du 29 juillet 1636 mentionne le nom du moulin pour la première fois ; il servait alors de moulin à grain à l'abbaye d'Affligem.
 En 1636, il est cédé à la famille Huens-Mertens qui en fait un moulin à papier.
 Trente ans plus tard, le moulin est revendu à Jean-Baptiste Gaucheret qui le transforme en moulin à huile pour alimenter la savonnerie qu'il possédait à Bruxelles. Ses descendants exploiteront le moulin jusqu'au XXe siècle, mais à nouveau comme moulin à grain à partir de 1745.
 Le moulin est désaffecté et cédé à l'état après la Première Guerre mondiale ; celui-ci le transforme pour y installer le personnel de l'Institut national des Invalides en 1926.
-L'état vend le domaine à la commune d'Uccle pour un franc symbolique en 1970. Le bâtiment est classé en 1971 mais se dégrade progressivement. L'aile principale est convertie en logement ; Jean Seydel installera sa forge dans l'atelier et y fabriquera pendant 20 ans des imitations d'armes et costumes historiques pour le cinéma, le théâtre, l'opéra et la télévision[4].
+L'état vend le domaine à la commune d'Uccle pour un franc symbolique en 1970. Le bâtiment est classé en 1971 mais se dégrade progressivement. L'aile principale est convertie en logement ; Jean Seydel installera sa forge dans l'atelier et y fabriquera pendant 20 ans des imitations d'armes et costumes historiques pour le cinéma, le théâtre, l'opéra et la télévision.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Le domaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le moulin est situé dans un espace vert de 650 m2 serré entre l'avenue Achille Reisdorff et la rue Keyenbempt et dont la commune d'Uccle et l’Institut national des invalides de guerre partagent la propriété. Le classement du site en 1977 - soutenu par une importante pétition populaire - contraria définitivement le projet de construction d'un ring Sud à ce niveau.
 </t>
@@ -578,11 +594,13 @@
           <t>Restauration du moulin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès 1992, l'état des bâtiments inquiète.
-La commune d'Uccle décide une campagne de travaux en 2006 en vue de transformer les bâtiments en espace culturel[5].
-Les travaux commencent en 2011 avec pour objectifs principaux d'assurer la stabilité de l'immeuble, restaurer ou reconstituer les éléments patrimoniaux endommagés, restaurer le mécanisme du moulin et réaménager les abords. Le coût d'1,4 million d'euros est partagé entre la commune et la Région de Bruxelles-Capitale. La presse annonce l'achèvement des travaux en octobre 2013[6].
+La commune d'Uccle décide une campagne de travaux en 2006 en vue de transformer les bâtiments en espace culturel.
+Les travaux commencent en 2011 avec pour objectifs principaux d'assurer la stabilité de l'immeuble, restaurer ou reconstituer les éléments patrimoniaux endommagés, restaurer le mécanisme du moulin et réaménager les abords. Le coût d'1,4 million d'euros est partagé entre la commune et la Région de Bruxelles-Capitale. La presse annonce l'achèvement des travaux en octobre 2013.
 Les espaces sont désormais proposés à la location pour l'organisation d'événements.
 </t>
         </is>
@@ -612,9 +630,11 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neckersgat signifierait 'passage des neckers', les neckers étant des petits génies des eaux [7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neckersgat signifierait 'passage des neckers', les neckers étant des petits génies des eaux .
 </t>
         </is>
       </c>
@@ -643,9 +663,11 @@
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Uccle : Moulin du Nekkersgat anno 1362, gravure d'Henri Quittelier, 1968, 22 × 27 cm (hors cadre), 200 exemplaires, signés au crayon[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Uccle : Moulin du Nekkersgat anno 1362, gravure d'Henri Quittelier, 1968, 22 × 27 cm (hors cadre), 200 exemplaires, signés au crayon.
 Photographies de l'état des lieux en 2006 et des travaux en cours sur le site du bureau d'architecture chargé du projet, en ligne.
 Photo satellite GoogleView, en plein chantier, 2013.</t>
         </is>
